--- a/data_year/zb/文化/群众文化机构基本情况/乡镇文化站.xlsx
+++ b/data_year/zb/文化/群众文化机构基本情况/乡镇文化站.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,635 +528,600 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65353</v>
+        <v>76273</v>
       </c>
       <c r="C2" t="n">
-        <v>153364</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>152825</v>
+      </c>
+      <c r="D2" t="n">
+        <v>73920</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>927.7</v>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>71137</v>
+      </c>
       <c r="M2" t="n">
-        <v>245747</v>
+        <v>373000</v>
       </c>
       <c r="N2" t="n">
-        <v>24.48448</v>
+        <v>37.8</v>
       </c>
       <c r="O2" t="n">
-        <v>33367</v>
+        <v>34121</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>278753</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>304927</v>
+      </c>
+      <c r="R2" t="n">
+        <v>155806</v>
+      </c>
       <c r="S2" t="n">
-        <v>9007.1</v>
+        <v>11503.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71395</v>
+        <v>66832</v>
       </c>
       <c r="C3" t="n">
-        <v>154960</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>150369</v>
+      </c>
+      <c r="D3" t="n">
+        <v>78148</v>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>865.099</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1231.28</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11036</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>3289.93</v>
+      </c>
       <c r="L3" t="n">
-        <v>48542</v>
+        <v>111483</v>
       </c>
       <c r="M3" t="n">
-        <v>314400</v>
+        <v>561834.3</v>
       </c>
       <c r="N3" t="n">
-        <v>31.89</v>
+        <v>56.47201</v>
       </c>
       <c r="O3" t="n">
-        <v>33378</v>
+        <v>34139</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>300228</v>
+        <v>326376</v>
       </c>
       <c r="R3" t="n">
-        <v>135189</v>
+        <v>154799</v>
       </c>
       <c r="S3" t="n">
-        <v>10067.832</v>
+        <v>13350.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76273</v>
+        <v>70477</v>
       </c>
       <c r="C4" t="n">
-        <v>152825</v>
+        <v>165711</v>
       </c>
       <c r="D4" t="n">
-        <v>73920</v>
+        <v>83676</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>927.7</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1336.59</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13005.24</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>3756.67</v>
+      </c>
       <c r="L4" t="n">
-        <v>71137</v>
+        <v>157741</v>
       </c>
       <c r="M4" t="n">
-        <v>373000</v>
+        <v>644540.1</v>
       </c>
       <c r="N4" t="n">
-        <v>37.8</v>
+        <v>61.04977</v>
       </c>
       <c r="O4" t="n">
-        <v>34121</v>
+        <v>34101</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>304927</v>
+        <v>371936</v>
       </c>
       <c r="R4" t="n">
-        <v>155806</v>
+        <v>178119</v>
       </c>
       <c r="S4" t="n">
-        <v>11503.1</v>
+        <v>15422.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66832</v>
+        <v>88539</v>
       </c>
       <c r="C5" t="n">
-        <v>150369</v>
+        <v>179747</v>
       </c>
       <c r="D5" t="n">
-        <v>78148</v>
+        <v>87922</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1231.28</v>
+        <v>1488</v>
       </c>
       <c r="I5" t="n">
-        <v>11036</v>
+        <v>11097</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>3289.93</v>
+        <v>3899</v>
       </c>
       <c r="L5" t="n">
-        <v>111483</v>
+        <v>200735</v>
       </c>
       <c r="M5" t="n">
-        <v>561834.3</v>
+        <v>662200</v>
       </c>
       <c r="N5" t="n">
-        <v>56.47201</v>
+        <v>67.62</v>
       </c>
       <c r="O5" t="n">
-        <v>34139</v>
+        <v>34343</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>326376</v>
+        <v>398373</v>
       </c>
       <c r="R5" t="n">
-        <v>154799</v>
+        <v>204395</v>
       </c>
       <c r="S5" t="n">
-        <v>13350.62</v>
+        <v>17200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70477</v>
+        <v>82615</v>
       </c>
       <c r="C6" t="n">
-        <v>165711</v>
+        <v>199720</v>
       </c>
       <c r="D6" t="n">
-        <v>83676</v>
+        <v>93307</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>1336.59</v>
+        <v>1615.819</v>
       </c>
       <c r="I6" t="n">
-        <v>13005.24</v>
+        <v>14160.922</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>3756.67</v>
+        <v>4355.918</v>
       </c>
       <c r="L6" t="n">
-        <v>157741</v>
+        <v>238423</v>
       </c>
       <c r="M6" t="n">
-        <v>644540.1</v>
+        <v>730262.1</v>
       </c>
       <c r="N6" t="n">
-        <v>61.04977</v>
+        <v>74.72638999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>34101</v>
+        <v>34465</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>371936</v>
+        <v>738842</v>
       </c>
       <c r="R6" t="n">
-        <v>178119</v>
+        <v>244276</v>
       </c>
       <c r="S6" t="n">
-        <v>15422.19</v>
+        <v>18494.544</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88539</v>
+        <v>88400</v>
       </c>
       <c r="C7" t="n">
-        <v>179747</v>
+        <v>226900</v>
       </c>
       <c r="D7" t="n">
-        <v>87922</v>
+        <v>95939</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1488</v>
+        <v>1771.387</v>
       </c>
       <c r="I7" t="n">
-        <v>11097</v>
+        <v>16479.204</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>3899</v>
+        <v>4855.143</v>
       </c>
       <c r="L7" t="n">
-        <v>200735</v>
+        <v>248000</v>
       </c>
       <c r="M7" t="n">
-        <v>662200</v>
+        <v>781682</v>
       </c>
       <c r="N7" t="n">
-        <v>67.62</v>
+        <v>81.69719000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>34343</v>
+        <v>34239</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>398373</v>
+        <v>514200</v>
       </c>
       <c r="R7" t="n">
-        <v>204395</v>
+        <v>229100</v>
       </c>
       <c r="S7" t="n">
-        <v>17200</v>
+        <v>19330.549</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82615</v>
+        <v>95754</v>
       </c>
       <c r="C8" t="n">
-        <v>199720</v>
+        <v>242191</v>
       </c>
       <c r="D8" t="n">
-        <v>93307</v>
+        <v>101970</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>1615.819</v>
+        <v>1955.627</v>
       </c>
       <c r="I8" t="n">
-        <v>14160.922</v>
+        <v>17172.572</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>4355.918</v>
+        <v>4841.08</v>
       </c>
       <c r="L8" t="n">
-        <v>238423</v>
+        <v>257990</v>
       </c>
       <c r="M8" t="n">
-        <v>730262.1</v>
+        <v>840204</v>
       </c>
       <c r="N8" t="n">
-        <v>74.72638999999999</v>
+        <v>85.56144999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>34465</v>
+        <v>34240</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>738842</v>
+        <v>554405</v>
       </c>
       <c r="R8" t="n">
-        <v>244276</v>
+        <v>238661</v>
       </c>
       <c r="S8" t="n">
-        <v>18494.544</v>
+        <v>20205.038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88400</v>
+        <v>97000</v>
       </c>
       <c r="C9" t="n">
-        <v>226900</v>
+        <v>264000</v>
       </c>
       <c r="D9" t="n">
-        <v>95939</v>
+        <v>100216</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>1771.387</v>
+        <v>1950.247</v>
       </c>
       <c r="I9" t="n">
-        <v>16479.204</v>
+        <v>20176.945</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>4855.143</v>
+        <v>4847.213</v>
       </c>
       <c r="L9" t="n">
-        <v>248000</v>
+        <v>264000</v>
       </c>
       <c r="M9" t="n">
-        <v>781682</v>
+        <v>1040175.5</v>
       </c>
       <c r="N9" t="n">
-        <v>81.69719000000001</v>
+        <v>100.2453</v>
       </c>
       <c r="O9" t="n">
-        <v>34239</v>
+        <v>33997</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>514200</v>
+        <v>596000</v>
       </c>
       <c r="R9" t="n">
-        <v>229100</v>
-      </c>
-      <c r="S9" t="n">
-        <v>19330.549</v>
-      </c>
+        <v>249000</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95754</v>
+        <v>100000</v>
       </c>
       <c r="C10" t="n">
-        <v>242191</v>
+        <v>285000</v>
       </c>
       <c r="D10" t="n">
-        <v>101970</v>
+        <v>104924</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>1955.627</v>
+        <v>2053</v>
       </c>
       <c r="I10" t="n">
-        <v>17172.572</v>
+        <v>20164</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>4841.08</v>
+        <v>4825</v>
       </c>
       <c r="L10" t="n">
-        <v>257990</v>
+        <v>263000</v>
       </c>
       <c r="M10" t="n">
-        <v>840204</v>
+        <v>1314122.7</v>
       </c>
       <c r="N10" t="n">
-        <v>85.56144999999999</v>
+        <v>130.88841</v>
       </c>
       <c r="O10" t="n">
-        <v>34240</v>
+        <v>33858</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>554405</v>
+        <v>653000</v>
       </c>
       <c r="R10" t="n">
-        <v>238661</v>
-      </c>
-      <c r="S10" t="n">
-        <v>20205.038</v>
-      </c>
+        <v>259000</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97000</v>
+        <v>102000</v>
       </c>
       <c r="C11" t="n">
-        <v>264000</v>
+        <v>315000</v>
       </c>
       <c r="D11" t="n">
-        <v>100216</v>
+        <v>109630</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1950.247</v>
+        <v>2147</v>
       </c>
       <c r="I11" t="n">
-        <v>20176.945</v>
+        <v>21741</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>4847.213</v>
+        <v>5021</v>
       </c>
       <c r="L11" t="n">
-        <v>264000</v>
+        <v>260000</v>
       </c>
       <c r="M11" t="n">
-        <v>1040175.5</v>
+        <v>1306000</v>
       </c>
       <c r="N11" t="n">
-        <v>100.2453</v>
+        <v>125.8</v>
       </c>
       <c r="O11" t="n">
-        <v>33997</v>
+        <v>33530</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>596000</v>
+        <v>725000</v>
       </c>
       <c r="R11" t="n">
-        <v>249000</v>
+        <v>271000</v>
       </c>
       <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100000</v>
+        <v>84387</v>
       </c>
       <c r="C12" t="n">
-        <v>285000</v>
+        <v>257403</v>
       </c>
       <c r="D12" t="n">
-        <v>104924</v>
+        <v>102963</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>2053</v>
+        <v>1780.67</v>
       </c>
       <c r="I12" t="n">
-        <v>20164</v>
+        <v>16313.63</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>4825</v>
+        <v>3686.69</v>
       </c>
       <c r="L12" t="n">
-        <v>263000</v>
+        <v>257313</v>
       </c>
       <c r="M12" t="n">
-        <v>1314122.7</v>
+        <v>1121098</v>
       </c>
       <c r="N12" t="n">
-        <v>130.88841</v>
+        <v>109.50024</v>
       </c>
       <c r="O12" t="n">
-        <v>33858</v>
+        <v>32825</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>653000</v>
+        <v>613019</v>
       </c>
       <c r="R12" t="n">
-        <v>259000</v>
+        <v>271966</v>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102000</v>
+        <v>100128</v>
       </c>
       <c r="C13" t="n">
-        <v>315000</v>
+        <v>310158</v>
       </c>
       <c r="D13" t="n">
-        <v>109630</v>
+        <v>105606</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>2147</v>
+        <v>2368.13</v>
       </c>
       <c r="I13" t="n">
-        <v>21741</v>
+        <v>25536.95</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>5021</v>
+        <v>5595.25</v>
       </c>
       <c r="L13" t="n">
-        <v>260000</v>
+        <v>248363</v>
       </c>
       <c r="M13" t="n">
-        <v>1306000</v>
+        <v>1323304.5</v>
       </c>
       <c r="N13" t="n">
-        <v>125.8</v>
+        <v>123.21007</v>
       </c>
       <c r="O13" t="n">
-        <v>33530</v>
+        <v>32524</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>725000</v>
+        <v>760999</v>
       </c>
       <c r="R13" t="n">
-        <v>271000</v>
+        <v>270182</v>
       </c>
       <c r="S13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>84387</v>
-      </c>
-      <c r="C14" t="n">
-        <v>257403</v>
-      </c>
-      <c r="D14" t="n">
-        <v>102963</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>1780.67</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16313.63</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>3686.69</v>
-      </c>
-      <c r="L14" t="n">
-        <v>257313</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1121098</v>
-      </c>
-      <c r="N14" t="n">
-        <v>109.50024</v>
-      </c>
-      <c r="O14" t="n">
-        <v>32825</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>613019</v>
-      </c>
-      <c r="R14" t="n">
-        <v>271966</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
